--- a/data/trans_camb/P1805_2016_2023-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1805_2016_2023-Habitat-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1830601473436106</v>
+        <v>-0.1009450190539408</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.022100020673295</v>
+        <v>-2.010617322132249</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.654266715965007</v>
+        <v>-0.5284687996893497</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.064901618147443</v>
+        <v>3.247330597183947</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.319102935597555</v>
+        <v>1.332781500133194</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.619934879429202</v>
+        <v>1.665113381888739</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2408502319417151</v>
+        <v>-0.1807452169267405</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4926005332212995</v>
+        <v>-0.490904083583999</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2553956200077988</v>
+        <v>-0.2075454132920641</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.28165501378301</v>
+        <v>5.184413528341589</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7500826132959382</v>
+        <v>0.7939583057493956</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.087048800258547</v>
+        <v>1.141173388868294</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5557249278345641</v>
+        <v>-0.6748523494139392</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.373507463935606</v>
+        <v>-1.464808791263692</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4715201812925889</v>
+        <v>-0.5770830642799638</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.186664323900925</v>
+        <v>1.995489376680284</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.772899345731851</v>
+        <v>1.659751862828488</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.489333504949567</v>
+        <v>1.520354683619071</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2761544546609059</v>
+        <v>-0.3384414697116366</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3190457456321393</v>
+        <v>-0.3432047808327797</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1612399916437269</v>
+        <v>-0.1883135881563843</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.964105822793426</v>
+        <v>1.989304021096986</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.718275365445447</v>
+        <v>0.6945800002346911</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7677166506595816</v>
+        <v>0.7921011579092786</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
         <v>2.246377116529504</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.256788082934006</v>
+        <v>2.256788082934005</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>2.242978240638729</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.622184763772877</v>
+        <v>0.6602219024067167</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1669049280157682</v>
+        <v>0.2748143432632849</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.829760944956617</v>
+        <v>1.013431110146984</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.500952854062241</v>
+        <v>4.418985815020259</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.3670798536806</v>
+        <v>4.3953081362513</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.6981575045079</v>
+        <v>3.823331015202322</v>
       </c>
     </row>
     <row r="19">
@@ -830,7 +830,7 @@
         <v>1.628743824300448</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.7713611632473667</v>
+        <v>0.7713611632473664</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>1.035916982334722</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2182878736984386</v>
+        <v>0.2673924843188246</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.02480180965904151</v>
+        <v>0.04408482308635504</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2644710029020466</v>
+        <v>0.3791068386189844</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>5.211283361160056</v>
+        <v>5.791313803660413</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.037380159838333</v>
+        <v>2.082365954529288</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.113147550309782</v>
+        <v>2.300477663311649</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05464155749442012</v>
+        <v>0.04016409607248537</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.098281000253956</v>
+        <v>-1.986898378999573</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.4534170071194307</v>
+        <v>-0.3273651022267273</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.85046427777079</v>
+        <v>3.853845423550301</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.79686354516727</v>
+        <v>1.969553464931652</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.517448060416238</v>
+        <v>2.330456145541488</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08132851449501158</v>
+        <v>-0.003686001884449694</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3217629618433933</v>
+        <v>-0.3126671011528492</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1040541947526907</v>
+        <v>-0.07732159403269881</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.711527926355644</v>
+        <v>1.865751582866458</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.421311327504057</v>
+        <v>0.481430836655223</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7433798515323186</v>
+        <v>0.6810340482027109</v>
       </c>
     </row>
     <row r="28">
@@ -991,7 +991,7 @@
         <v>1.517566618254029</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.5157012408370409</v>
+        <v>0.5157012408370403</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>1.008490763548013</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6347391708265527</v>
+        <v>0.7285146142061286</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4047806697749067</v>
+        <v>-0.3231442115391571</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3597619760336012</v>
+        <v>0.3175531219497087</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.417701726965138</v>
+        <v>2.405364940099407</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.354869952745645</v>
+        <v>1.424775091194098</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.656962688019791</v>
+        <v>1.583209338103273</v>
       </c>
     </row>
     <row r="31">
@@ -1042,7 +1042,7 @@
         <v>0.8435793032639817</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.1396017032914884</v>
+        <v>0.1396017032914882</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.3644661337819515</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2709902370488516</v>
+        <v>0.3470860500290565</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.09606228478765068</v>
+        <v>-0.0820704599263422</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1163419655835749</v>
+        <v>0.1001271226924576</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.585779851178696</v>
+        <v>1.615614529007066</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4122381365592078</v>
+        <v>0.4424478199690148</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6757303614028838</v>
+        <v>0.6231168856276331</v>
       </c>
     </row>
     <row r="34">
